--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bruno\GDrive\Outros computadores\Notebbok - Bruno Marin\Curso EAD - Ciências de Dados\5º Semestre\Programação para Ciência de Dados\N2\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4297875E-22FA-4BA4-8677-20B33A697A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A354BCF5-74B6-464D-A4DE-A9194B7D92F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{88B98D8B-6C02-4C49-AA4B-A7F086D336C0}"/>
   </bookViews>
@@ -2535,14 +2535,14 @@
   <dimension ref="A1:C677"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="9.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
